--- a/bots/crawl_ch/output/bread_coop_2023-02-15.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-15.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8495,45 +8495,45 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6338745</t>
+          <t>4952835</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane</t>
+          <t>Roland Zwieback glutenfrei</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8553,56 +8553,60 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
+          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4952835</t>
+          <t>6338745</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei</t>
+          <t>JaMaDu Jungle Cracker Apfel Banane</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-apfel-banane/p/6338745</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8612,7 +8616,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8622,22 +8626,18 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>JaMaDu Jungle Cracker Apfel Banane 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8990,7 +8990,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9274,45 +9274,45 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>6141017</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9332,60 +9332,56 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4960272</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E127" t="n">
         <v>4.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9395,7 +9391,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9405,56 +9401,60 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6141017</t>
+          <t>4960272</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück</t>
+          <t>Roland Guezli Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-au-citron-7-stueck/p/6141017</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-guezli-petite-pause-milch-cereales/p/4960272</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9474,18 +9474,18 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine au Citron 7 Stück 3.95 Schweizer Franken</t>
+          <t>Roland Guezli Petite Pause Milch Céréales 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9700,45 +9700,45 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3041836</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Délicatesse Roggen</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-delicatesse-roggen/p/3041836</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E132" t="n">
         <v>4.5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>1.33/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9758,60 +9758,56 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Délicatesse Roggen 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>3041836</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Roland Knäckebrot Délicatesse Roggen</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-delicatesse-roggen/p/3041836</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E133" t="n">
         <v>4.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.33/100g</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9821,7 +9817,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9831,18 +9827,22 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
+          <t>Roland Knäckebrot Délicatesse Roggen 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11120,7 +11120,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11972,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12114,7 +12114,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12605,7 +12605,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12674,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12954,45 +12954,45 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13002,7 +13002,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13012,60 +13012,56 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13075,7 +13071,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13085,56 +13081,60 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D180" t="n">
         <v>4</v>
       </c>
       <c r="E180" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13154,60 +13154,56 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13217,7 +13213,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13227,18 +13223,22 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr"/>
+          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13522,7 +13522,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14161,7 +14161,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14230,7 +14230,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14445,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14587,7 +14587,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14729,7 +14729,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14802,7 +14802,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14871,7 +14871,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15084,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15226,7 +15226,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15295,7 +15295,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15364,7 +15364,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15433,7 +15433,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15506,7 +15506,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15575,7 +15575,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15648,7 +15648,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15794,7 +15794,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15936,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16005,7 +16005,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16074,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16147,7 +16147,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16216,7 +16216,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16283,7 +16283,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16356,31 +16356,29 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -16389,12 +16387,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16404,7 +16402,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16414,56 +16412,56 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
         </is>
       </c>
       <c r="D227" t="n">
         <v>2</v>
       </c>
       <c r="E227" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16473,7 +16471,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16483,54 +16481,56 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>2</v>
+      </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16555,51 +16555,51 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>3861388</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E229" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Klas</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16619,56 +16619,60 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr"/>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>3861388</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Klas Jufka Filoteig</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/klas-jufka-filoteig/p/3861388</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E230" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Klas</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16678,7 +16682,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16688,22 +16692,18 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Klas Jufka Filoteig 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16776,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16914,7 +16914,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16987,7 +16987,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17056,7 +17056,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17198,7 +17198,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17340,7 +17340,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17478,7 +17478,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17547,7 +17547,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17616,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17752,7 +17752,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17821,7 +17821,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17888,7 +17888,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18030,7 +18030,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18170,7 +18170,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18239,45 +18239,45 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18287,7 +18287,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18302,51 +18302,51 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E254" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18356,7 +18356,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -18366,56 +18366,56 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E255" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18435,18 +18435,18 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18592,7 +18592,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18665,7 +18665,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18734,7 +18734,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18803,7 +18803,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18945,7 +18945,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19014,7 +19014,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19083,7 +19083,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19152,7 +19152,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19296,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19434,7 +19434,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19503,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19572,7 +19572,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19712,45 +19712,45 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19760,7 +19760,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19770,58 +19770,56 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>23</v>
+      </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19831,7 +19829,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19841,56 +19839,58 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -19910,56 +19910,56 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -19979,18 +19979,18 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20059,7 +20059,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20268,7 +20268,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20410,7 +20410,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20477,7 +20477,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20546,7 +20546,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20615,7 +20615,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20753,45 +20753,45 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20801,7 +20801,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20811,35 +20811,35 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -20850,17 +20850,17 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20880,56 +20880,56 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20939,7 +20939,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20949,56 +20949,60 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E292" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21008,7 +21012,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21018,22 +21022,18 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21315,45 +21315,45 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E297" t="n">
         <v>3.5</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21373,56 +21373,60 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N297" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E298" t="n">
         <v>3.5</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21432,7 +21436,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -21442,22 +21446,18 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21526,7 +21526,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21664,28 +21664,28 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -21697,12 +21697,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21712,7 +21712,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21722,39 +21722,39 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -21766,12 +21766,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21791,18 +21791,18 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22090,7 +22090,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22163,7 +22163,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22232,7 +22232,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22301,7 +22301,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22370,7 +22370,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22516,7 +22516,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22585,7 +22585,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22654,7 +22654,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22788,7 +22788,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22930,7 +22930,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22999,7 +22999,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23068,7 +23068,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23348,7 +23348,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-15 12:57:45</t>
+          <t>2023-02-15 20:49:36</t>
         </is>
       </c>
     </row>
